--- a/record_flight_plan/国内航班计划备案.xlsx
+++ b/record_flight_plan/国内航班计划备案.xlsx
@@ -208,17 +208,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>OKA</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>BK2727</t>
+          <t>OQ2053</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -232,16 +232,14 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+        <v>320.0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>ZBTJ-ZJSY</t>
+          <t>ZBHH-ZBCF</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
@@ -261,7 +259,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>或使用739机型</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
@@ -273,17 +271,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>BK</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>OKA</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>BK2728</t>
+          <t>OQ2054</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -297,16 +295,14 @@
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+        <v>320.0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>ZJSY-ZBTJ</t>
+          <t>ZBCF-ZBHH</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -326,7 +322,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>或使用739机型</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -338,17 +334,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CCA</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>CA9611</t>
+          <t>OQ2027</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -358,18 +354,20 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>加班</t>
+          <t>正班</t>
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G5" s="3" t="n">
-        <v>1234567.0</v>
+        <v>320.0</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBTL</t>
+          <t>ZBHH-ZBMZ</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -379,7 +377,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -401,17 +399,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>CCA</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>CA9612</t>
+          <t>OQ2028</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -421,18 +419,20 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>加班</t>
+          <t>正班</t>
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G6" s="3" t="n">
-        <v>1234567.0</v>
+        <v>320.0</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>ZBTL-ZBHH</t>
+          <t>ZBMZ-ZBHH</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -442,7 +442,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -464,17 +464,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CCA</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>CA9613</t>
+          <t>OQ2013</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -484,18 +484,20 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>加班</t>
+          <t>正班</t>
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G7" s="3" t="n">
-        <v>1234567.0</v>
+        <v>320.0</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBCF</t>
+          <t>ZBHH-ZBLA</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -505,7 +507,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -527,17 +529,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CCA</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>CA9614</t>
+          <t>OQ2014</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -547,18 +549,20 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>加班</t>
+          <t>正班</t>
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G8" s="3" t="n">
-        <v>1234567.0</v>
+        <v>320.0</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>ZBCF-ZBHH</t>
+          <t>ZBLA-ZBHH</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -568,7 +572,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2020-10-15</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -590,17 +594,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>HBH</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>NS3515</t>
+          <t>OQ2381</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -614,24 +618,24 @@
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G9" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>ZBSJ-ZJSY</t>
+          <t>ZBHH-ZHCC-ZGHZ</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -641,7 +645,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>或73G或E90执行。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -653,17 +657,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>OQ</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>HBH</t>
+          <t>CQN</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>NS3516</t>
+          <t>OQ2382</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -677,24 +681,24 @@
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G10" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>ZJSY-ZBSJ</t>
+          <t>ZGHZ-ZHCC-ZBHH</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2020-06-22</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2020-07-22</t>
+          <t>2020-07-31</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -704,7 +708,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>或73G或E90执行。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -716,17 +720,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>9D</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>HBH</t>
+          <t>NMG</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>NS3299</t>
+          <t>9D5661</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -739,20 +743,22 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F11" s="3" t="n">
-        <v>738.0</v>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>ARJ</t>
+        </is>
       </c>
       <c r="G11" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>ZSAM-ZBSJ-ZBDH</t>
+          <t>ZBHH-ZBXH</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -767,7 +773,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>或73G或E90执行。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -779,17 +785,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>9D</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>HBH</t>
+          <t>NMG</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>NS3300</t>
+          <t>9D5662</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -802,20 +808,22 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F12" s="3" t="n">
-        <v>738.0</v>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>ARJ</t>
+        </is>
       </c>
       <c r="G12" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>ZBDH-ZBSJ-ZSAM</t>
+          <t>ZBXH-ZBHH</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2020-06-28</t>
+          <t>2020-07-01</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -830,136 +838,10 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>或73G或E90执行。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>已申报</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="B13" s="2" t="inlineStr">
-        <is>
-          <t>HBH</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>NS3319</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>国内</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>正班</t>
-        </is>
-      </c>
-      <c r="F13" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G13" s="3" t="n">
-        <v>1234567.0</v>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>ZBSJ-ZBCD</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>2020-06-28</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>2020-10-24</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>客/客货混合</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>或73G或E90执行。</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>已申报</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="inlineStr">
-        <is>
-          <t>NS</t>
-        </is>
-      </c>
-      <c r="B14" s="2" t="inlineStr">
-        <is>
-          <t>HBH</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>NS3320</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>国内</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>正班</t>
-        </is>
-      </c>
-      <c r="F14" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G14" s="3" t="n">
-        <v>1234567.0</v>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>ZBCD-ZBSJ</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>2020-06-28</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>2020-10-24</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>客/客货混合</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>或73G或E90执行。</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
         <is>
           <t>已申报</t>
         </is>

--- a/record_flight_plan/国内航班计划备案.xlsx
+++ b/record_flight_plan/国内航班计划备案.xlsx
@@ -208,17 +208,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>OQ2053</t>
+          <t>KN2905</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -232,19 +232,21 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>.234...</t>
+        </is>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBCF</t>
+          <t>ZBAD-ZBOW</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -271,17 +273,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>OQ2054</t>
+          <t>KN2906</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -295,19 +297,21 @@
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G4" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>.234...</t>
+        </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>ZBCF-ZBHH</t>
+          <t>ZBOW-ZBAD</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -334,17 +338,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>OQ2027</t>
+          <t>KN5321</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -358,26 +362,24 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+        <v>738.0</v>
+      </c>
+      <c r="G5" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBMZ</t>
+          <t>ZBDS-ZYTL</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -399,17 +401,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>OQ2028</t>
+          <t>KN5322</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -423,26 +425,24 @@
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+        <v>738.0</v>
+      </c>
+      <c r="G6" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>ZBMZ-ZBHH</t>
+          <t>ZYTL-ZBDS</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -464,17 +464,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>OQ2013</t>
+          <t>KN2357</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -488,26 +488,24 @@
         </is>
       </c>
       <c r="F7" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+        <v>738.0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBLA</t>
+          <t>ZBSJ-ZSTX-ZGOW</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -529,17 +527,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>OQ2014</t>
+          <t>KN2358</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -553,26 +551,24 @@
         </is>
       </c>
       <c r="F8" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+        <v>738.0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>ZBLA-ZBHH</t>
+          <t>ZGOW-ZSTX-ZBSJ</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -594,17 +590,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>OQ2381</t>
+          <t>KN2811</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -618,24 +614,26 @@
         </is>
       </c>
       <c r="F9" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G9" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZHCC-ZGHZ</t>
+          <t>ZBDS-ZHNY</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -657,17 +655,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>OQ2382</t>
+          <t>KN2812</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -681,24 +679,26 @@
         </is>
       </c>
       <c r="F10" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G10" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>ZGHZ-ZHCC-ZBHH</t>
+          <t>ZHNY-ZBDS</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2020-07-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -720,17 +720,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>9D</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>NMG</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9D5661</t>
+          <t>KN2805</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -743,22 +743,22 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>ARJ</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>1234567.0</v>
+      <c r="F11" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBXH</t>
+          <t>ZBDS-ZSJH</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2020-07-01</t>
+          <t>2020-07-10</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -785,17 +785,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>9D</t>
+          <t>KN</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>NMG</t>
+          <t>CUA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9D5662</t>
+          <t>KN2806</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -808,40 +808,1954 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>ARJ</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="n">
+      <c r="F12" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>ZSJH-ZBDS</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B13" s="2" t="inlineStr">
+        <is>
+          <t>CUA</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>KN5335</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F13" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZSRZ</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>CUA</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>KN5336</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F14" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>ZSRZ-ZBDS</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>CUA</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>KN2397</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F15" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZSYN</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>KN</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>CUA</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>KN2398</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F16" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>ZSYN-ZBDS</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>OQ</t>
+        </is>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
+        <is>
+          <t>CQN</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>OQ2397</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F17" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G17" s="3" t="n">
         <v>1234567.0</v>
       </c>
-      <c r="H12" s="2" t="inlineStr">
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBXH</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="inlineStr">
+        <is>
+          <t>OQ</t>
+        </is>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>CQN</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>OQ2398</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F18" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G18" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
         <is>
           <t>ZBXH-ZBHH</t>
         </is>
       </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>2020-07-01</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>2020-10-24</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>客/客货混合</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>无</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="inlineStr">
+        <is>
+          <t>OQ</t>
+        </is>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
+        <is>
+          <t>CQN</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>OQ2067</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F19" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZGHA-ZGHZ</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>OQ</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>CQN</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>OQ2068</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>ZGHZ-ZGHA-ZBHH</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>OQ</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>CQN</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>OQ2061</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F21" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBTL</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>OQ</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>CQN</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>OQ2062</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F22" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>ZBTL-ZBHH</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-06</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="inlineStr">
+        <is>
+          <t>9C</t>
+        </is>
+      </c>
+      <c r="B23" s="2" t="inlineStr">
+        <is>
+          <t>CQH</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>9C6539</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F23" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>ZBSJ-ZBTL</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="inlineStr">
+        <is>
+          <t>9C</t>
+        </is>
+      </c>
+      <c r="B24" s="2" t="inlineStr">
+        <is>
+          <t>CQH</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>9C6540</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F24" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>ZBTL-ZBSJ</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B25" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>MF8869</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZWWW</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>MF8870</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>ZWWW-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>MF8707</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZBLA</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>MF8708</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>ZBLA-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>MF8663</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>ZBAD-ZBLA</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>MF8664</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>ZBLA-ZBAD</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>MF8183</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>12.4...</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZBYC</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>MF</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>CXA</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>MF8184</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>12.4...</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>ZBYC-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-09</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>或B738执行。</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>MU6465</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.67</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZGCD</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>MU6466</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.67</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>ZGCD-ZBDS</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>DKH</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>HO1931</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>ZBAD-ZBLA</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>HO</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>DKH</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>HO1932</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>ZBLA-ZBAD</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>MU9943</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>ZBYN-ZWWW</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>MU9944</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>ZWWW-ZBYN</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-05</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>2020-08-31</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>GS7809</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G39" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZGHA</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>或使用 A330/A321/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>GS7810</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G40" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>ZGHA-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-16</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>或使用 A330/A321/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>QW</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>QDA</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>QW6085</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>ZBLA-ZBHH</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>QW</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>QDA</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>QW6086</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBLA</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-10</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
         <is>
           <t>已申报</t>
         </is>

--- a/record_flight_plan/国内航班计划备案.xlsx
+++ b/record_flight_plan/国内航班计划备案.xlsx
@@ -208,17 +208,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>KN2905</t>
+          <t>CZ8923</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -232,21 +232,19 @@
         </is>
       </c>
       <c r="F3" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>.234...</t>
-        </is>
+        <v>320.0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>ZBAD-ZBOW</t>
+          <t>ZBAD-ZBLA</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -261,7 +259,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或321/738/333执行</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
@@ -273,17 +271,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>KN2906</t>
+          <t>CZ8924</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -297,21 +295,19 @@
         </is>
       </c>
       <c r="F4" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>.234...</t>
-        </is>
+        <v>320.0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>ZBOW-ZBAD</t>
+          <t>ZBLA-ZBAD</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -326,7 +322,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或321/738/333执行</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -338,17 +334,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>KN5321</t>
+          <t>CZ8947</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -362,19 +358,19 @@
         </is>
       </c>
       <c r="F5" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>ZBDS-ZYTL</t>
+          <t>ZBAD-ZBHH</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -389,7 +385,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或321/738/333执行</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -401,17 +397,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>CSN</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>KN5322</t>
+          <t>CZ8948</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -425,19 +421,19 @@
         </is>
       </c>
       <c r="F6" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>ZYTL-ZBDS</t>
+          <t>ZBHH-ZBAD</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -452,7 +448,7 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或321/738/333执行</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -464,17 +460,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>KN2357</t>
+          <t>BK3249</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -490,17 +486,19 @@
       <c r="F7" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G7" s="3" t="n">
-        <v>1234567.0</v>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>ZBSJ-ZSTX-ZGOW</t>
+          <t>ZBTJ-ZLLL</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -515,7 +513,7 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
@@ -527,17 +525,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>KN2358</t>
+          <t>BK3250</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -553,17 +551,19 @@
       <c r="F8" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G8" s="3" t="n">
-        <v>1234567.0</v>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>ZGOW-ZSTX-ZBSJ</t>
+          <t>ZLLL-ZBTJ</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -578,7 +578,7 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
@@ -590,17 +590,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>KN2811</t>
+          <t>BK3197</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -616,19 +616,17 @@
       <c r="F9" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+      <c r="G9" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>ZBDS-ZHNY</t>
+          <t>ZBTJ-ZWTL</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -643,7 +641,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -655,17 +653,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>KN2812</t>
+          <t>BK3198</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -681,19 +679,17 @@
       <c r="F10" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+      <c r="G10" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>ZHNY-ZBDS</t>
+          <t>ZWTL-ZBTJ</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -708,7 +704,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -720,17 +716,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>KN2805</t>
+          <t>BK2855</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -746,19 +742,17 @@
       <c r="F11" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="G11" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>ZBDS-ZSJH</t>
+          <t>ZBTJ-ZWWW</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -773,7 +767,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -785,17 +779,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>KN2806</t>
+          <t>BK2856</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -811,19 +805,17 @@
       <c r="F12" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="G12" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>ZSJH-ZBDS</t>
+          <t>ZWWW-ZBTJ</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-20</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -838,7 +830,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -850,17 +842,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>KN5335</t>
+          <t>GS7793</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -874,21 +866,21 @@
         </is>
       </c>
       <c r="F13" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1.3.5.7</t>
+          <t>....5..</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>ZBDS-ZSRZ</t>
+          <t>ZBTJ-ZBLA</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -903,7 +895,7 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A330/A321/E90机型执行</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
@@ -915,17 +907,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>KN5336</t>
+          <t>GS7794</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -939,21 +931,21 @@
         </is>
       </c>
       <c r="F14" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1.3.5.7</t>
+          <t>....5..</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>ZSRZ-ZBDS</t>
+          <t>ZBLA-ZBTJ</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -968,7 +960,7 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A330/A321/E90机型执行</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
@@ -980,17 +972,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>KN2397</t>
+          <t>GS7751</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1004,7 +996,7 @@
         </is>
       </c>
       <c r="F15" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
@@ -1013,12 +1005,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>ZBDS-ZSYN</t>
+          <t>ZBTJ-ZBHH</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -1033,7 +1025,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A330/A321/E90机型执行</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1045,17 +1037,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>KN</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CUA</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>KN2398</t>
+          <t>GS7752</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1069,7 +1061,7 @@
         </is>
       </c>
       <c r="F16" s="3" t="n">
-        <v>738.0</v>
+        <v>320.0</v>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
@@ -1078,12 +1070,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>ZSYN-ZBDS</t>
+          <t>ZBHH-ZBTJ</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-23</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -1098,7 +1090,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A330/A321/E90机型执行</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1110,17 +1102,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>OQ2397</t>
+          <t>GS6649</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1133,20 +1125,24 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F17" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G17" s="3" t="n">
-        <v>1234567.0</v>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBXH</t>
+          <t>ZBHH-ZSLY-ZSNT</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -1161,7 +1157,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A320/A330/A321</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1173,17 +1169,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>OQ2398</t>
+          <t>GS6650</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1196,20 +1192,24 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F18" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G18" s="3" t="n">
-        <v>1234567.0</v>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>ZBXH-ZBHH</t>
+          <t>ZSNT-ZSLY-ZBHH</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-27</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -1224,7 +1224,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A320/A330/A321机型执行</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1236,17 +1236,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>OQ2067</t>
+          <t>GS7715</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1269,12 +1269,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZGHA-ZGHZ</t>
+          <t>ZBTJ-ZLLL</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A330/A321/E90机型执行</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
@@ -1301,17 +1301,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>GS</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>GCR</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>OQ2068</t>
+          <t>GS7716</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1334,12 +1334,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>ZGHZ-ZGHA-ZBHH</t>
+          <t>ZLLL-ZBTJ</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或A330/A321/E90机型执行</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
@@ -1366,17 +1366,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>OQ2061</t>
+          <t>NS3337</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1390,19 +1390,19 @@
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>320.0</v>
+        <v>738.0</v>
       </c>
       <c r="G21" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBTL</t>
+          <t>ZBSJ-ZUYB-ZSWZ</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -1417,7 +1417,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1429,17 +1429,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>OQ</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CQN</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>OQ2062</t>
+          <t>NS3338</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1453,19 +1453,19 @@
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>320.0</v>
+        <v>738.0</v>
       </c>
       <c r="G22" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>ZBTL-ZBHH</t>
+          <t>ZSWZ-ZUYB-ZBSJ</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2020-07-06</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -1480,7 +1480,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1492,17 +1492,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>9C</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>CQH</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>9C6539</t>
+          <t>NS3339</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="F23" s="3" t="n">
-        <v>320.0</v>
+        <v>738.0</v>
       </c>
       <c r="G23" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>ZBSJ-ZBTL</t>
+          <t>ZBSJ-ZUYB</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
@@ -1555,17 +1555,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>9C</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>CQH</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>9C6540</t>
+          <t>NS3340</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1579,19 +1579,19 @@
         </is>
       </c>
       <c r="F24" s="3" t="n">
-        <v>320.0</v>
+        <v>738.0</v>
       </c>
       <c r="G24" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>ZBTL-ZBSJ</t>
+          <t>ZUYB-ZBSJ</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -1606,7 +1606,7 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
@@ -1618,17 +1618,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>MF8869</t>
+          <t>NS3523</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1642,24 +1642,26 @@
         </is>
       </c>
       <c r="F25" s="3" t="n">
-        <v>737.0</v>
-      </c>
-      <c r="G25" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>ZBTJ-ZWWW</t>
+          <t>ZBSJ-ZYCC</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1669,7 +1671,7 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
@@ -1681,17 +1683,17 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>MF8870</t>
+          <t>NS3524</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
@@ -1705,24 +1707,26 @@
         </is>
       </c>
       <c r="F26" s="3" t="n">
-        <v>737.0</v>
-      </c>
-      <c r="G26" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>ZWWW-ZBTJ</t>
+          <t>ZYCC-ZBSJ</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
@@ -1732,7 +1736,7 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
@@ -1744,17 +1748,17 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>MF8707</t>
+          <t>NS3225</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
@@ -1768,24 +1772,26 @@
         </is>
       </c>
       <c r="F27" s="3" t="n">
-        <v>737.0</v>
-      </c>
-      <c r="G27" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>......7</t>
+        </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>ZBTJ-ZBLA</t>
+          <t>ZBSJ-ZSNJ</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
@@ -1795,7 +1801,7 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
@@ -1807,17 +1813,17 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr">
         <is>
-          <t>MF8708</t>
+          <t>NS3226</t>
         </is>
       </c>
       <c r="D28" s="2" t="inlineStr">
@@ -1831,24 +1837,26 @@
         </is>
       </c>
       <c r="F28" s="3" t="n">
-        <v>737.0</v>
-      </c>
-      <c r="G28" s="3" t="n">
-        <v>1234567.0</v>
+        <v>738.0</v>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>......7</t>
+        </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>ZBLA-ZBTJ</t>
+          <t>ZSNJ-ZBSJ</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-15</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K28" s="2" t="inlineStr">
@@ -1858,7 +1866,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
@@ -1870,17 +1878,17 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr">
         <is>
-          <t>MF8663</t>
+          <t>NS3291</t>
         </is>
       </c>
       <c r="D29" s="2" t="inlineStr">
@@ -1894,19 +1902,19 @@
         </is>
       </c>
       <c r="F29" s="3" t="n">
-        <v>737.0</v>
+        <v>738.0</v>
       </c>
       <c r="G29" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>ZBAD-ZBLA</t>
+          <t>ZBSJ-ZSAM</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -1921,7 +1929,7 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
@@ -1933,17 +1941,17 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr">
         <is>
-          <t>MF8664</t>
+          <t>NS3292</t>
         </is>
       </c>
       <c r="D30" s="2" t="inlineStr">
@@ -1957,19 +1965,19 @@
         </is>
       </c>
       <c r="F30" s="3" t="n">
-        <v>737.0</v>
+        <v>738.0</v>
       </c>
       <c r="G30" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>ZBLA-ZBAD</t>
+          <t>ZSAM-ZBSJ</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -1984,7 +1992,7 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
@@ -1996,17 +2004,17 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr">
         <is>
-          <t>MF8183</t>
+          <t>NS3509</t>
         </is>
       </c>
       <c r="D31" s="2" t="inlineStr">
@@ -2020,21 +2028,19 @@
         </is>
       </c>
       <c r="F31" s="3" t="n">
-        <v>737.0</v>
-      </c>
-      <c r="G31" s="2" t="inlineStr">
-        <is>
-          <t>12.4...</t>
-        </is>
+        <v>738.0</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>ZBTJ-ZBYC</t>
+          <t>ZBSJ-ZYHB</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -2049,7 +2055,7 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
@@ -2061,17 +2067,17 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>MF</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>CXA</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C32" s="2" t="inlineStr">
         <is>
-          <t>MF8184</t>
+          <t>NS3510</t>
         </is>
       </c>
       <c r="D32" s="2" t="inlineStr">
@@ -2085,21 +2091,19 @@
         </is>
       </c>
       <c r="F32" s="3" t="n">
-        <v>737.0</v>
-      </c>
-      <c r="G32" s="2" t="inlineStr">
-        <is>
-          <t>12.4...</t>
-        </is>
+        <v>738.0</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>ZBYC-ZBTJ</t>
+          <t>ZYHB-ZBSJ</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>2020-07-09</t>
+          <t>2020-07-26</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -2114,7 +2118,7 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>或B738执行。</t>
+          <t>或73G或E90执行。</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
@@ -2126,17 +2130,17 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>CES</t>
+          <t>CBJ</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr">
         <is>
-          <t>MU6465</t>
+          <t>JD5822</t>
         </is>
       </c>
       <c r="D33" s="2" t="inlineStr">
@@ -2150,21 +2154,19 @@
         </is>
       </c>
       <c r="F33" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G33" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.67</t>
-        </is>
+        <v>319.0</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>ZBDS-ZGCD</t>
+          <t>ZBHH-ZSCN-ZJHK</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -2179,7 +2181,7 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或320/321/330/350执行</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
@@ -2191,17 +2193,17 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>JD</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>CES</t>
+          <t>CBJ</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr">
         <is>
-          <t>MU6466</t>
+          <t>JD5821</t>
         </is>
       </c>
       <c r="D34" s="2" t="inlineStr">
@@ -2215,21 +2217,19 @@
         </is>
       </c>
       <c r="F34" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G34" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.67</t>
-        </is>
+        <v>319.0</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>ZGCD-ZBDS</t>
+          <t>ZJHK-ZSCN-ZBHH</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-08-01</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -2244,7 +2244,7 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或320/321/330/350执行</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
@@ -2256,17 +2256,17 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>DKH</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr">
         <is>
-          <t>HO1931</t>
+          <t>KY3091</t>
         </is>
       </c>
       <c r="D35" s="2" t="inlineStr">
@@ -2280,19 +2280,19 @@
         </is>
       </c>
       <c r="F35" s="3" t="n">
-        <v>320.0</v>
+        <v>737.0</v>
       </c>
       <c r="G35" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>ZBAD-ZBLA</t>
+          <t>ZGHA-ZBYN</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -2307,7 +2307,7 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
@@ -2319,17 +2319,17 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>HO</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>DKH</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr">
         <is>
-          <t>HO1932</t>
+          <t>KY3092</t>
         </is>
       </c>
       <c r="D36" s="2" t="inlineStr">
@@ -2343,19 +2343,19 @@
         </is>
       </c>
       <c r="F36" s="3" t="n">
-        <v>320.0</v>
+        <v>737.0</v>
       </c>
       <c r="G36" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>ZBLA-ZBAD</t>
+          <t>ZBYN-ZGHA</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-07-16</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
@@ -2382,17 +2382,17 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>CES</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr">
         <is>
-          <t>MU9943</t>
+          <t>KY8283</t>
         </is>
       </c>
       <c r="D37" s="2" t="inlineStr">
@@ -2406,24 +2406,26 @@
         </is>
       </c>
       <c r="F37" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G37" s="3" t="n">
-        <v>1234567.0</v>
+        <v>737.0</v>
+      </c>
+      <c r="G37" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>ZBYN-ZWWW</t>
+          <t>ZBYN-ZSNJ</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K37" s="2" t="inlineStr">
@@ -2433,7 +2435,7 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
@@ -2445,17 +2447,17 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>MU</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>CES</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr">
         <is>
-          <t>MU9944</t>
+          <t>KY8284</t>
         </is>
       </c>
       <c r="D38" s="2" t="inlineStr">
@@ -2469,24 +2471,26 @@
         </is>
       </c>
       <c r="F38" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G38" s="3" t="n">
-        <v>1234567.0</v>
+        <v>737.0</v>
+      </c>
+      <c r="G38" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
       </c>
       <c r="H38" s="2" t="inlineStr">
         <is>
-          <t>ZWWW-ZBYN</t>
+          <t>ZSNJ-ZBYN</t>
         </is>
       </c>
       <c r="I38" s="2" t="inlineStr">
         <is>
-          <t>2020-07-05</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J38" s="2" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K38" s="2" t="inlineStr">
@@ -2496,7 +2500,7 @@
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
@@ -2508,17 +2512,17 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>GCR</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr">
         <is>
-          <t>GS7809</t>
+          <t>KY8287</t>
         </is>
       </c>
       <c r="D39" s="2" t="inlineStr">
@@ -2532,7 +2536,7 @@
         </is>
       </c>
       <c r="F39" s="3" t="n">
-        <v>320.0</v>
+        <v>737.0</v>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
@@ -2541,12 +2545,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>ZBTJ-ZGHA</t>
+          <t>ZBYN-ZGSD</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -2561,7 +2565,7 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>或使用 A330/A321/E90机型执行</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
@@ -2573,17 +2577,17 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>GCR</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C40" s="2" t="inlineStr">
         <is>
-          <t>GS7810</t>
+          <t>KY8288</t>
         </is>
       </c>
       <c r="D40" s="2" t="inlineStr">
@@ -2597,7 +2601,7 @@
         </is>
       </c>
       <c r="F40" s="3" t="n">
-        <v>320.0</v>
+        <v>737.0</v>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
@@ -2606,12 +2610,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>ZGHA-ZBTJ</t>
+          <t>ZGSD-ZBYN</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>2020-07-16</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -2626,7 +2630,7 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>或使用 A330/A321/E90机型执行</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
@@ -2638,17 +2642,17 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>QW</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>QDA</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr">
         <is>
-          <t>QW6085</t>
+          <t>KY3027</t>
         </is>
       </c>
       <c r="D41" s="2" t="inlineStr">
@@ -2662,19 +2666,21 @@
         </is>
       </c>
       <c r="F41" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G41" s="3" t="n">
-        <v>1234567.0</v>
+        <v>737.0</v>
+      </c>
+      <c r="G41" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>ZBLA-ZBHH</t>
+          <t>ZBYN-ZUCK</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -2689,7 +2695,7 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
@@ -2701,17 +2707,17 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>QW</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>QDA</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr">
         <is>
-          <t>QW6086</t>
+          <t>KY3028</t>
         </is>
       </c>
       <c r="D42" s="2" t="inlineStr">
@@ -2725,19 +2731,21 @@
         </is>
       </c>
       <c r="F42" s="3" t="n">
-        <v>320.0</v>
-      </c>
-      <c r="G42" s="3" t="n">
-        <v>1234567.0</v>
+        <v>737.0</v>
+      </c>
+      <c r="G42" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBLA</t>
+          <t>ZUCK-ZBYN</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>2020-07-10</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -2752,10 +2760,270 @@
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>KY3011</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G43" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>ZBYN-ZSAM</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>或使用737-800机型执飞</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>KY3012</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G44" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>ZSAM-ZBYN</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>或使用737-800机型执飞</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>KY3017</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G45" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>ZBYN-ZGKL</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>或使用737-800机型执飞</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>KY</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>KNA</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>KY3018</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G46" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>ZGKL-ZBYN</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>或使用737-800机型执飞</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
         <is>
           <t>已申报</t>
         </is>

--- a/record_flight_plan/国内航班计划备案.xlsx
+++ b/record_flight_plan/国内航班计划备案.xlsx
@@ -3029,6 +3029,888 @@
         </is>
       </c>
     </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B47" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>CA8141</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F47" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G47" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZJSY</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>CA8142</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F48" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G48" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>ZJSY-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>CA8123</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F49" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G49" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZGSZ</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>CA8124</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F50" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G50" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>ZGSZ-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>CA8133</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F51" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G51" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZLXY</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>CA8134</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F52" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G52" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>ZLXY-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>CA1133</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G53" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBCF</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>CA1134</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G54" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>ZBCF-ZBHH</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>CA1135</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F55" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G55" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBTL</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>CA1136</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F56" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G56" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>ZBTL-ZBHH</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>CA1617</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F57" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZUCK</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>CA1618</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>ZUCK-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>CA8565</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F59" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G59" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>ZUCK-ZBHH</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>CA8566</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F60" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G60" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZUCK</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>2020-07-15</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:M1"/>

--- a/record_flight_plan/国内航班计划备案.xlsx
+++ b/record_flight_plan/国内航班计划备案.xlsx
@@ -208,17 +208,17 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr">
         <is>
-          <t>G52855</t>
+          <t>KY3097</t>
         </is>
       </c>
       <c r="D3" s="2" t="inlineStr">
@@ -231,24 +231,20 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+      <c r="F3" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H3" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBER-ZBCF</t>
+          <t>ZBYN-ZUGY</t>
         </is>
       </c>
       <c r="I3" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J3" s="2" t="inlineStr">
@@ -263,7 +259,7 @@
       </c>
       <c r="L3" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞。</t>
         </is>
       </c>
       <c r="M3" s="2" t="inlineStr">
@@ -275,17 +271,17 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>KY</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>KNA</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>G52856</t>
+          <t>KY3098</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -298,24 +294,20 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+      <c r="F4" s="3" t="n">
+        <v>737.0</v>
+      </c>
+      <c r="G4" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>ZBCF-ZBER-ZBHH</t>
+          <t>ZUGY-ZBYN</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -330,7 +322,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用737-800机型执飞。</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -342,17 +334,17 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CHH</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>G54407</t>
+          <t>HU6315</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -365,22 +357,20 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
+      <c r="F5" s="3" t="n">
+        <v>738.0</v>
       </c>
       <c r="G5" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBYZ</t>
+          <t>ZBYN-ZSFZ</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -407,17 +397,17 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CHH</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>G54408</t>
+          <t>HU6316</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -430,22 +420,20 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
+      <c r="F6" s="3" t="n">
+        <v>738.0</v>
       </c>
       <c r="G6" s="3" t="n">
         <v>1234567.0</v>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>ZBYZ-ZBHH</t>
+          <t>ZSFZ-ZBYN</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -472,17 +460,17 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CHH</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>G54421</t>
+          <t>HU6317</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
@@ -495,24 +483,20 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F7" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G7" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBUH</t>
+          <t>ZBYN-ZGKL</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -539,17 +523,17 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CHH</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>G54422</t>
+          <t>HU6318</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -562,24 +546,20 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F8" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G8" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>ZBUH-ZBHH</t>
+          <t>ZGKL-ZBYN</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-01</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -606,17 +586,17 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>Y8</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>YZR</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>Y87563</t>
+          <t>BK2705</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
@@ -632,22 +612,24 @@
       <c r="F9" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G9" s="3" t="n">
-        <v>1234567.0</v>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5..</t>
+        </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>ZBTL-ZBHH</t>
+          <t>ZBTJ-ZSHC-ZGSD</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -657,7 +639,7 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
@@ -669,17 +651,17 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>Y8</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>YZR</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>Y87564</t>
+          <t>BK2706</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -695,22 +677,24 @@
       <c r="F10" s="3" t="n">
         <v>738.0</v>
       </c>
-      <c r="G10" s="3" t="n">
-        <v>1234567.0</v>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5..</t>
+        </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBTL</t>
+          <t>ZGSD-ZSHC-ZBTJ</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2020-08-25</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>2020-09-30</t>
+          <t>2020-10-24</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -720,7 +704,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -732,17 +716,17 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>G52711</t>
+          <t>BK2705</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
@@ -752,25 +736,25 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>正班</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="n">
-        <v>1234567.0</v>
+          <t>加班</t>
+        </is>
+      </c>
+      <c r="F11" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>......7</t>
+        </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBMZ</t>
+          <t>ZBTJ-ZSHC-ZGSD</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -785,7 +769,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -797,17 +781,17 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>BK</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>OKA</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>G52712</t>
+          <t>BK2706</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -817,25 +801,25 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>正班</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="n">
-        <v>1234567.0</v>
+          <t>加班</t>
+        </is>
+      </c>
+      <c r="F12" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>......7</t>
+        </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>ZBMZ-ZBHH</t>
+          <t>ZGSD-ZSHC-ZBTJ</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-02</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -850,7 +834,7 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>或使用739机型</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
@@ -862,17 +846,17 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>9D</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>NMG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>9D5665</t>
+          <t>SC2395</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
@@ -885,19 +869,15 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>ARJ</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F13" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G13" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBXH-ZBLA</t>
+          <t>ZBOW-ZBMZ</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
@@ -929,17 +909,17 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>9D</t>
+          <t>SC</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>NMG</t>
+          <t>CDG</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>9D5666</t>
+          <t>SC2396</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -952,19 +932,15 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>ARJ</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F14" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G14" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>ZBLA-ZBXH-ZBHH</t>
+          <t>ZBMZ-ZBOW</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -996,17 +972,17 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>CHH</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>HU6261</t>
+          <t>NS3611</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
@@ -1016,7 +992,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>正班</t>
+          <t>加班</t>
         </is>
       </c>
       <c r="F15" s="3" t="n">
@@ -1027,7 +1003,7 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>ZBYN-ZUCK</t>
+          <t>ZBSJ-ZBHH</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
@@ -1037,7 +1013,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1047,7 +1023,7 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>暑运加班。</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
@@ -1059,17 +1035,17 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>NS</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>CHH</t>
+          <t>HBH</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>HU6262</t>
+          <t>NS3612</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1079,7 +1055,7 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>正班</t>
+          <t>加班</t>
         </is>
       </c>
       <c r="F16" s="3" t="n">
@@ -1090,7 +1066,7 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>ZUCK-ZBYN</t>
+          <t>ZBHH-ZBSJ</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1100,7 +1076,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1110,7 +1086,7 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>暑运加班。</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
@@ -1122,17 +1098,17 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>GCR</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>GS7870</t>
+          <t>MU8095</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
@@ -1148,24 +1124,22 @@
       <c r="F17" s="3" t="n">
         <v>320.0</v>
       </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="G17" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>ZBTJ-ZGYY-ZJSY</t>
+          <t>ZBYN-ZGBH</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1175,7 +1149,7 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>或A330/A321/E90机型执行</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
@@ -1187,17 +1161,17 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>GS</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>GCR</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>GS7869</t>
+          <t>MU8096</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
@@ -1213,24 +1187,22 @@
       <c r="F18" s="3" t="n">
         <v>320.0</v>
       </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="G18" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>ZJSY-ZGYY-ZBTJ</t>
+          <t>ZGBH-ZBYN</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1240,7 +1212,7 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>或A330/A321/E90机型执行</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
@@ -1252,17 +1224,17 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>G52931</t>
+          <t>MU8097</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
@@ -1275,29 +1247,25 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F19" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G19" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZSXZ</t>
+          <t>ZBYN-ZBDT</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1319,17 +1287,17 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>G52932</t>
+          <t>MU8098</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
@@ -1342,29 +1310,25 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F20" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G20" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>ZSXZ-ZBHH</t>
+          <t>ZBDT-ZBYN</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1386,17 +1350,17 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>HBH</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>NS3313</t>
+          <t>MU8099</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
@@ -1406,30 +1370,28 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>临时经营</t>
+          <t>正班</t>
         </is>
       </c>
       <c r="F21" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G21" s="2" t="inlineStr">
-        <is>
-          <t>1...5..</t>
-        </is>
+        <v>320.0</v>
+      </c>
+      <c r="G21" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>ZBSJ-ZWSH</t>
+          <t>ZBYN-ZGZJ</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2020-08-31</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1439,7 +1401,7 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>运送新冠疫情采样管等防疫物资。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
@@ -1451,17 +1413,17 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>NS</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>HBH</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>NS3314</t>
+          <t>MU8989</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
@@ -1471,30 +1433,28 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>临时经营</t>
+          <t>正班</t>
         </is>
       </c>
       <c r="F22" s="3" t="n">
-        <v>738.0</v>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+        <v>320.0</v>
+      </c>
+      <c r="G22" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>ZWSH-ZBSJ</t>
+          <t>ZGZJ-ZBYN</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>2020-08-17</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>2020-09-01</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1504,7 +1464,7 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>运送新冠疫情采样管等防疫物资。</t>
+          <t>无</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
@@ -1516,17 +1476,17 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>G54435</t>
+          <t>MU6201</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
@@ -1539,29 +1499,25 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F23" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G23" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F23" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G23" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>ZBHH-ZBUH</t>
+          <t>ZBDS-ZBDH</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1583,17 +1539,17 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>G54436</t>
+          <t>MU6202</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
@@ -1606,29 +1562,25 @@
           <t>正班</t>
         </is>
       </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>.2.4.6.</t>
-        </is>
+      <c r="F24" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G24" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>ZBUH-ZBHH</t>
+          <t>ZBDH-ZBDS</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>2020-08-20</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
@@ -1650,17 +1602,17 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>G5</t>
+          <t>MU</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>HXA</t>
+          <t>CES</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>G54975</t>
+          <t>MU6203</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
@@ -1670,32 +1622,28 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>临时经营</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>CR9</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>1.3.5.7</t>
-        </is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F25" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G25" s="3" t="n">
+        <v>1234567.0</v>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>ZBOW-ZSJN</t>
+          <t>ZBDS-ZBXZ</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>2020-10-16</t>
+          <t>2020-09-05</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>2020-10-24</t>
+          <t>2020-10-15</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
@@ -1717,65 +1665,3295 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>MU6204</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F26" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G26" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>ZBXZ-ZBDS</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>MU6205</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F27" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G27" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZGHA</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>MU6206</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F28" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G28" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>ZGHA-ZBDS</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B29" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>MU6207</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F29" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G29" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZSNJ</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B30" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>MU6208</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F30" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G30" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>ZSNJ-ZBDS</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B31" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>MU6209</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F31" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G31" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZHYC</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L31" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B32" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>MU6210</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F32" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G32" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>ZHYC-ZBDS</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L32" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M32" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B33" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>MU6211</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F33" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G33" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZSWF</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L33" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M33" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B34" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>MU6212</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F34" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G34" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>ZSWF-ZBDS</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L34" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M34" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B35" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>MU6213</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F35" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G35" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZSYN</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L35" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M35" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B36" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C36" s="2" t="inlineStr">
+        <is>
+          <t>MU6214</t>
+        </is>
+      </c>
+      <c r="D36" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F36" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G36" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H36" s="2" t="inlineStr">
+        <is>
+          <t>ZSYN-ZBDS</t>
+        </is>
+      </c>
+      <c r="I36" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J36" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K36" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L36" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M36" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B37" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C37" s="2" t="inlineStr">
+        <is>
+          <t>MU6215</t>
+        </is>
+      </c>
+      <c r="D37" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F37" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G37" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H37" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZGDY</t>
+        </is>
+      </c>
+      <c r="I37" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J37" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K37" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L37" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M37" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B38" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C38" s="2" t="inlineStr">
+        <is>
+          <t>MU6216</t>
+        </is>
+      </c>
+      <c r="D38" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F38" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G38" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H38" s="2" t="inlineStr">
+        <is>
+          <t>ZGDY-ZBDS</t>
+        </is>
+      </c>
+      <c r="I38" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J38" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K38" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L38" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M38" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B39" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C39" s="2" t="inlineStr">
+        <is>
+          <t>MU6217</t>
+        </is>
+      </c>
+      <c r="D39" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F39" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G39" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H39" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZSWY</t>
+        </is>
+      </c>
+      <c r="I39" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J39" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K39" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L39" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M39" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B40" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>MU6218</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F40" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G40" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H40" s="2" t="inlineStr">
+        <is>
+          <t>ZSWY-ZBDS</t>
+        </is>
+      </c>
+      <c r="I40" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J40" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K40" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L40" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M40" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B41" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>MU6221</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F41" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G41" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H41" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZSWH</t>
+        </is>
+      </c>
+      <c r="I41" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J41" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K41" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L41" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M41" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B42" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C42" s="2" t="inlineStr">
+        <is>
+          <t>MU6222</t>
+        </is>
+      </c>
+      <c r="D42" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F42" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G42" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H42" s="2" t="inlineStr">
+        <is>
+          <t>ZSWH-ZBDS</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B43" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C43" s="2" t="inlineStr">
+        <is>
+          <t>MU6223</t>
+        </is>
+      </c>
+      <c r="D43" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F43" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G43" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZLYL</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M43" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B44" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C44" s="2" t="inlineStr">
+        <is>
+          <t>MU6224</t>
+        </is>
+      </c>
+      <c r="D44" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F44" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G44" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>ZLYL-ZBDS</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M44" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B45" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C45" s="2" t="inlineStr">
+        <is>
+          <t>MU6219</t>
+        </is>
+      </c>
+      <c r="D45" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F45" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G45" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>ZBDS-ZGOW</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M45" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="inlineStr">
+        <is>
+          <t>MU</t>
+        </is>
+      </c>
+      <c r="B46" s="2" t="inlineStr">
+        <is>
+          <t>CES</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr">
+        <is>
+          <t>MU6220</t>
+        </is>
+      </c>
+      <c r="D46" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F46" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G46" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>ZGOW-ZBDS</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-05</t>
+        </is>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-15</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M46" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="inlineStr">
+        <is>
           <t>G5</t>
         </is>
       </c>
-      <c r="B26" s="2" t="inlineStr">
+      <c r="B47" s="2" t="inlineStr">
         <is>
           <t>HXA</t>
         </is>
       </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>G54976</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>国内</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>临时经营</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>G52751</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F47" s="2" t="inlineStr">
         <is>
           <t>CR9</t>
         </is>
       </c>
-      <c r="G26" s="2" t="inlineStr">
+      <c r="G47" s="2" t="inlineStr">
         <is>
           <t>1.3.5.7</t>
         </is>
       </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>ZSJN-ZBOW</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>2020-10-16</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
+      <c r="H47" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBCF</t>
+        </is>
+      </c>
+      <c r="I47" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="J47" s="2" t="inlineStr">
         <is>
           <t>2020-10-24</t>
         </is>
       </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>客/客货混合</t>
-        </is>
-      </c>
-      <c r="L26" s="2" t="inlineStr">
+      <c r="K47" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L47" s="2" t="inlineStr">
         <is>
           <t>无</t>
         </is>
       </c>
-      <c r="M26" s="2" t="inlineStr">
+      <c r="M47" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B48" s="2" t="inlineStr">
+        <is>
+          <t>HXA</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>G52752</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F48" s="2" t="inlineStr">
+        <is>
+          <t>CR9</t>
+        </is>
+      </c>
+      <c r="G48" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H48" s="2" t="inlineStr">
+        <is>
+          <t>ZBCF-ZBHH</t>
+        </is>
+      </c>
+      <c r="I48" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="J48" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K48" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L48" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M48" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B49" s="2" t="inlineStr">
+        <is>
+          <t>HXA</t>
+        </is>
+      </c>
+      <c r="C49" s="2" t="inlineStr">
+        <is>
+          <t>G52749</t>
+        </is>
+      </c>
+      <c r="D49" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F49" s="2" t="inlineStr">
+        <is>
+          <t>CR9</t>
+        </is>
+      </c>
+      <c r="G49" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H49" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBTL</t>
+        </is>
+      </c>
+      <c r="I49" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="J49" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K49" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L49" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M49" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B50" s="2" t="inlineStr">
+        <is>
+          <t>HXA</t>
+        </is>
+      </c>
+      <c r="C50" s="2" t="inlineStr">
+        <is>
+          <t>G52750</t>
+        </is>
+      </c>
+      <c r="D50" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F50" s="2" t="inlineStr">
+        <is>
+          <t>CR9</t>
+        </is>
+      </c>
+      <c r="G50" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H50" s="2" t="inlineStr">
+        <is>
+          <t>ZBTL-ZBHH</t>
+        </is>
+      </c>
+      <c r="I50" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-18</t>
+        </is>
+      </c>
+      <c r="J50" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K50" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L50" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M50" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B51" s="2" t="inlineStr">
+        <is>
+          <t>HXA</t>
+        </is>
+      </c>
+      <c r="C51" s="2" t="inlineStr">
+        <is>
+          <t>G52913</t>
+        </is>
+      </c>
+      <c r="D51" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F51" s="2" t="inlineStr">
+        <is>
+          <t>CR9</t>
+        </is>
+      </c>
+      <c r="G51" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H51" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBLA</t>
+        </is>
+      </c>
+      <c r="I51" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="J51" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K51" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L51" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M51" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="inlineStr">
+        <is>
+          <t>G5</t>
+        </is>
+      </c>
+      <c r="B52" s="2" t="inlineStr">
+        <is>
+          <t>HXA</t>
+        </is>
+      </c>
+      <c r="C52" s="2" t="inlineStr">
+        <is>
+          <t>G52914</t>
+        </is>
+      </c>
+      <c r="D52" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F52" s="2" t="inlineStr">
+        <is>
+          <t>CR9</t>
+        </is>
+      </c>
+      <c r="G52" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H52" s="2" t="inlineStr">
+        <is>
+          <t>ZBLA-ZBHH</t>
+        </is>
+      </c>
+      <c r="I52" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-20</t>
+        </is>
+      </c>
+      <c r="J52" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K52" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L52" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M52" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B53" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C53" s="2" t="inlineStr">
+        <is>
+          <t>CA1141</t>
+        </is>
+      </c>
+      <c r="D53" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F53" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G53" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H53" s="2" t="inlineStr">
+        <is>
+          <t>ZBAD-ZBXH</t>
+        </is>
+      </c>
+      <c r="I53" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="J53" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K53" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L53" s="2" t="inlineStr">
+        <is>
+          <t>正班增补</t>
+        </is>
+      </c>
+      <c r="M53" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="inlineStr">
+        <is>
+          <t>CA</t>
+        </is>
+      </c>
+      <c r="B54" s="2" t="inlineStr">
+        <is>
+          <t>CCA</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>CA1142</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F54" s="3" t="n">
+        <v>738.0</v>
+      </c>
+      <c r="G54" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H54" s="2" t="inlineStr">
+        <is>
+          <t>ZBXH-ZBAD</t>
+        </is>
+      </c>
+      <c r="I54" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-08</t>
+        </is>
+      </c>
+      <c r="J54" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K54" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L54" s="2" t="inlineStr">
+        <is>
+          <t>正班增补</t>
+        </is>
+      </c>
+      <c r="M54" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B55" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C55" s="2" t="inlineStr">
+        <is>
+          <t>GS7915</t>
+        </is>
+      </c>
+      <c r="D55" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F55" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G55" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H55" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZBCF-ZBLA</t>
+        </is>
+      </c>
+      <c r="I55" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="J55" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K55" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L55" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A320/A321机型执行</t>
+        </is>
+      </c>
+      <c r="M55" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B56" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C56" s="2" t="inlineStr">
+        <is>
+          <t>GS7916</t>
+        </is>
+      </c>
+      <c r="D56" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F56" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G56" s="2" t="inlineStr">
+        <is>
+          <t>.2.4.6.</t>
+        </is>
+      </c>
+      <c r="H56" s="2" t="inlineStr">
+        <is>
+          <t>ZBLA-ZBCF-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I56" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="J56" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K56" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L56" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A320/A321机型执行</t>
+        </is>
+      </c>
+      <c r="M56" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B57" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>GS7759</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F57" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G57" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H57" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZSJN</t>
+        </is>
+      </c>
+      <c r="I57" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J57" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K57" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L57" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A320/A321机型执行</t>
+        </is>
+      </c>
+      <c r="M57" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B58" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C58" s="2" t="inlineStr">
+        <is>
+          <t>GS7760</t>
+        </is>
+      </c>
+      <c r="D58" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F58" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G58" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H58" s="2" t="inlineStr">
+        <is>
+          <t>ZSJN-ZBHH</t>
+        </is>
+      </c>
+      <c r="I58" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J58" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K58" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L58" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A320/A321机型执行</t>
+        </is>
+      </c>
+      <c r="M58" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B59" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C59" s="2" t="inlineStr">
+        <is>
+          <t>GS7765</t>
+        </is>
+      </c>
+      <c r="D59" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F59" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G59" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H59" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZYTL</t>
+        </is>
+      </c>
+      <c r="I59" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="J59" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K59" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L59" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A320/A321机型执行</t>
+        </is>
+      </c>
+      <c r="M59" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B60" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C60" s="2" t="inlineStr">
+        <is>
+          <t>GS7809</t>
+        </is>
+      </c>
+      <c r="D60" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F60" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G60" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H60" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZGHA</t>
+        </is>
+      </c>
+      <c r="I60" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J60" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K60" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L60" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A320/A321机型执行</t>
+        </is>
+      </c>
+      <c r="M60" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B61" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr">
+        <is>
+          <t>GS7810</t>
+        </is>
+      </c>
+      <c r="D61" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F61" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G61" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H61" s="2" t="inlineStr">
+        <is>
+          <t>ZGHA-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I61" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J61" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K61" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L61" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A320/A321机型执行</t>
+        </is>
+      </c>
+      <c r="M61" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B62" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C62" s="2" t="inlineStr">
+        <is>
+          <t>GS7766</t>
+        </is>
+      </c>
+      <c r="D62" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F62" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G62" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H62" s="2" t="inlineStr">
+        <is>
+          <t>ZYTL-ZBHH</t>
+        </is>
+      </c>
+      <c r="I62" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-23</t>
+        </is>
+      </c>
+      <c r="J62" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K62" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L62" s="2" t="inlineStr">
+        <is>
+          <t>或按照A330/A321/A320机型执行</t>
+        </is>
+      </c>
+      <c r="M62" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B63" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C63" s="2" t="inlineStr">
+        <is>
+          <t>GS7717</t>
+        </is>
+      </c>
+      <c r="D63" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F63" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G63" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H63" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZSWX</t>
+        </is>
+      </c>
+      <c r="I63" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J63" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K63" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L63" s="2" t="inlineStr">
+        <is>
+          <t>或A330/A321/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M63" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B64" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C64" s="2" t="inlineStr">
+        <is>
+          <t>GS7718</t>
+        </is>
+      </c>
+      <c r="D64" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F64" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G64" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H64" s="2" t="inlineStr">
+        <is>
+          <t>ZSWX-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I64" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J64" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K64" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L64" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M64" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B65" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C65" s="2" t="inlineStr">
+        <is>
+          <t>GS7719</t>
+        </is>
+      </c>
+      <c r="D65" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F65" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G65" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H65" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZUYB</t>
+        </is>
+      </c>
+      <c r="I65" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J65" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K65" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L65" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M65" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B66" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C66" s="2" t="inlineStr">
+        <is>
+          <t>GS7720</t>
+        </is>
+      </c>
+      <c r="D66" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F66" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G66" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H66" s="2" t="inlineStr">
+        <is>
+          <t>ZUYB-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I66" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J66" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K66" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L66" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M66" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>9D</t>
+        </is>
+      </c>
+      <c r="B67" s="2" t="inlineStr">
+        <is>
+          <t>NMG</t>
+        </is>
+      </c>
+      <c r="C67" s="2" t="inlineStr">
+        <is>
+          <t>9D5681</t>
+        </is>
+      </c>
+      <c r="D67" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F67" s="2" t="inlineStr">
+        <is>
+          <t>ARJ</t>
+        </is>
+      </c>
+      <c r="G67" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H67" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZBXH-ZBOW</t>
+        </is>
+      </c>
+      <c r="I67" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="J67" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K67" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L67" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M67" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>9D</t>
+        </is>
+      </c>
+      <c r="B68" s="2" t="inlineStr">
+        <is>
+          <t>NMG</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>9D5682</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F68" s="2" t="inlineStr">
+        <is>
+          <t>ARJ</t>
+        </is>
+      </c>
+      <c r="G68" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H68" s="2" t="inlineStr">
+        <is>
+          <t>ZBOW-ZBXH-ZBHH</t>
+        </is>
+      </c>
+      <c r="I68" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-10</t>
+        </is>
+      </c>
+      <c r="J68" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K68" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L68" s="2" t="inlineStr">
+        <is>
+          <t>无</t>
+        </is>
+      </c>
+      <c r="M68" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B69" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C69" s="2" t="inlineStr">
+        <is>
+          <t>GS6633</t>
+        </is>
+      </c>
+      <c r="D69" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F69" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G69" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H69" s="2" t="inlineStr">
+        <is>
+          <t>ZBHH-ZYHB</t>
+        </is>
+      </c>
+      <c r="I69" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J69" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K69" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L69" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/A320机型执行</t>
+        </is>
+      </c>
+      <c r="M69" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B70" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C70" s="2" t="inlineStr">
+        <is>
+          <t>GS6634</t>
+        </is>
+      </c>
+      <c r="D70" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F70" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G70" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H70" s="2" t="inlineStr">
+        <is>
+          <t>ZYHB-ZBHH</t>
+        </is>
+      </c>
+      <c r="I70" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J70" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K70" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L70" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/A320机型执行</t>
+        </is>
+      </c>
+      <c r="M70" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B71" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr">
+        <is>
+          <t>GS7763</t>
+        </is>
+      </c>
+      <c r="D71" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F71" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G71" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H71" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZSYT</t>
+        </is>
+      </c>
+      <c r="I71" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J71" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K71" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L71" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/A320机型执行</t>
+        </is>
+      </c>
+      <c r="M71" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B72" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C72" s="2" t="inlineStr">
+        <is>
+          <t>GS7764</t>
+        </is>
+      </c>
+      <c r="D72" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F72" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G72" s="3" t="n">
+        <v>1234567.0</v>
+      </c>
+      <c r="H72" s="2" t="inlineStr">
+        <is>
+          <t>ZSYT-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I72" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-30</t>
+        </is>
+      </c>
+      <c r="J72" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K72" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L72" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/A320机型执行</t>
+        </is>
+      </c>
+      <c r="M72" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B73" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr">
+        <is>
+          <t>GS7841</t>
+        </is>
+      </c>
+      <c r="D73" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F73" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G73" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H73" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZHCC-ZGHY</t>
+        </is>
+      </c>
+      <c r="I73" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J73" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K73" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L73" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/A320机型执行</t>
+        </is>
+      </c>
+      <c r="M73" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B74" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C74" s="2" t="inlineStr">
+        <is>
+          <t>GS7842</t>
+        </is>
+      </c>
+      <c r="D74" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F74" s="2" t="inlineStr">
+        <is>
+          <t>E90</t>
+        </is>
+      </c>
+      <c r="G74" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H74" s="2" t="inlineStr">
+        <is>
+          <t>ZGHY-ZHCC-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I74" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J74" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K74" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L74" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/A320机型执行</t>
+        </is>
+      </c>
+      <c r="M74" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B75" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C75" s="2" t="inlineStr">
+        <is>
+          <t>GS7811</t>
+        </is>
+      </c>
+      <c r="D75" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F75" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G75" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H75" s="2" t="inlineStr">
+        <is>
+          <t>ZBTJ-ZSWZ</t>
+        </is>
+      </c>
+      <c r="I75" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J75" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K75" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L75" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M75" s="2" t="inlineStr">
+        <is>
+          <t>已申报</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B76" s="2" t="inlineStr">
+        <is>
+          <t>GCR</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>GS7812</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>国内</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="inlineStr">
+        <is>
+          <t>正班</t>
+        </is>
+      </c>
+      <c r="F76" s="3" t="n">
+        <v>320.0</v>
+      </c>
+      <c r="G76" s="2" t="inlineStr">
+        <is>
+          <t>1.3.5.7</t>
+        </is>
+      </c>
+      <c r="H76" s="2" t="inlineStr">
+        <is>
+          <t>ZSWZ-ZBTJ</t>
+        </is>
+      </c>
+      <c r="I76" s="2" t="inlineStr">
+        <is>
+          <t>2020-09-01</t>
+        </is>
+      </c>
+      <c r="J76" s="2" t="inlineStr">
+        <is>
+          <t>2020-10-24</t>
+        </is>
+      </c>
+      <c r="K76" s="2" t="inlineStr">
+        <is>
+          <t>客/客货混合</t>
+        </is>
+      </c>
+      <c r="L76" s="2" t="inlineStr">
+        <is>
+          <t>或A321/A330/E90机型执行</t>
+        </is>
+      </c>
+      <c r="M76" s="2" t="inlineStr">
         <is>
           <t>已申报</t>
         </is>
